--- a/02_MasterWifoMannheim/03_Courses/Course167.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course167.xlsx
@@ -1,37 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/99_Backup/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD320D83EA79A301159E868366A69FEEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE6A3E79-0B9C-400C-A991-D679898D86E4}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>OPM 682 Revenue Management</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>In today's e-business environment, there is an increasing number of unlocked opportunities to increase profits through Revenue Management (RM). instrument in order to effectively match supply and demand and thereby maximize profitability – by selling the right product to the right customer at the right time through the right channel for the right price. RM takes into account that on the supply side, resources to produce these products are usually constrained and often perishable, and therefore, the effectiveness of the abovementioned market-related decisions is highly interrelated with resource allocation decisions. Today, RM is a large revenue generator for several major industries relying on sophisticated RM systems; Robert Crandall, former Chairman and CEO of "the single most important technical development in transportation management since we entered deregulation." While airlines have the longest history of development in electric utilities, broadcasting and even manufacturing. For outside observers, RM may seem often like an art. of RM is analytics – including systematic data analysis, forecasting, and powerful optimization that allows taking all market- and supply-related profit drivers simultaneously into account. This course provides the key ideas, the underlying basic models and state-of-the-art methods of RM.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>Students will gain insights into practical applications of models and methods and enhance their analytical skills.</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>OPM 501| OPM 502| OPM 561| OPM 581| OPM 582| OPM 591</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Obligatory registrationFurther Information on the registration</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture &amp; Exercise class 2 6 Exercise class 2 2</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Final exam, optional bonus assignment</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Cornelia Schön</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+  </si>
+  <si>
+    <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +148,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,213 +472,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>OPM 682 Revenue Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>In today's e-business environment, there is an increasing number of unlocked opportunities to increase profits through Revenue Management (RM). instrument in order to effectively match supply and demand and thereby maximize profitability – by selling the right product to the right customer at the right time through the right channel for the right price. RM takes into account that on the supply side, resources to produce these products are usually constrained and often perishable, and therefore, the effectiveness of the abovementioned market-related decisions is highly interrelated with resource allocation decisions. Today, RM is a large revenue generator for several major industries relying on sophisticated RM systems; Robert Crandall, former Chairman and CEO of "the single most important technical development in transportation management since we entered deregulation." While airlines have the longest history of development in electric utilities, broadcasting and even manufacturing. For outside observers, RM may seem often like an art. of RM is analytics – including systematic data analysis, forecasting, and powerful optimization that allows taking all market- and supply-related profit drivers simultaneously into account. This course provides the key ideas, the underlying basic models and state-of-the-art methods of RM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Students will gain insights into practical applications of models and methods and enhance their analytical skills.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>OPM 501| OPM 502| OPM 561| OPM 581| OPM 582| OPM 591</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registrationFurther Information on the registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture &amp; Exercise class 2 6 Exercise class 2 2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Final exam, optional bonus assignment</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Cornelia Schön</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
